--- a/formatexcel/absensi-raisa.xlsx
+++ b/formatexcel/absensi-raisa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -426,7 +426,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -486,7 +486,7 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="F5" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -526,7 +526,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F7" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
